--- a/htdocs/App/Controllers/Traspasos/3239CSK.xlsx
+++ b/htdocs/App/Controllers/Traspasos/3239CSK.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>TRANSFERENCIAS COMPRAVENTAS</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>sin confirmar</t>
   </si>
   <si>
     <t>Tramitación Transferencia………………..</t>
@@ -1430,8 +1433,8 @@
         <v>18</v>
       </c>
       <c r="C18" s="45"/>
-      <c r="D18" s="55">
-        <v>0</v>
+      <c r="D18" s="55" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
@@ -1448,7 +1451,7 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T18" s="60"/>
       <c r="U18" s="60"/>
@@ -1456,7 +1459,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="44">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="14" t="s">
         <v>12</v>
@@ -1483,7 +1486,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
@@ -1514,7 +1517,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T20" s="60"/>
       <c r="U20" s="60"/>
@@ -1528,13 +1531,13 @@
     <row r="21" spans="1:43" customHeight="1" ht="15.75">
       <c r="A21" s="31"/>
       <c r="B21" s="47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
@@ -1655,7 +1658,7 @@
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -1839,7 +1842,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
